--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q1-25/00. Bases/pico_marcacion_ecuador.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q1-25/00. Bases/pico_marcacion_ecuador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\picos xenofobia\2025\Bases Paises Q1-25\00. Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF72F301-CF49-476B-8C53-D396D52D9AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0395424-7DA5-4539-A46E-5AA500743CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6867,7 +6867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6878,11 +6878,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7182,8 +7196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="C397" sqref="C397"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D407" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7227,19 +7244,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7248,27 +7265,30 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5527</v>
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -7277,27 +7297,30 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7309,27 +7332,27 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7341,24 +7364,27 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7367,30 +7393,30 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>546</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7399,30 +7425,30 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44.9</v>
+        <v>35.9</v>
       </c>
       <c r="I7">
-        <v>34552</v>
+        <v>8540</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7431,30 +7457,30 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>70.8</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>224921</v>
+        <v>222</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7463,27 +7489,30 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>118977</v>
+        <v>189</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7492,30 +7521,30 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>60150</v>
+        <v>219</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7524,30 +7553,30 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6158</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -7556,30 +7585,30 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3515</v>
+        <v>237</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -7591,27 +7620,27 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -7620,27 +7649,30 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -7652,27 +7684,27 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -7684,30 +7716,30 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7716,27 +7748,27 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -7748,27 +7780,27 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -7780,27 +7812,27 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -7809,30 +7841,30 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -7841,27 +7873,30 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>75.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>141010</v>
+        <v>120</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -7870,21 +7905,24 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>43.2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6028</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -7893,30 +7931,27 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>24.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I23">
-        <v>2410</v>
-      </c>
-      <c r="J23" t="s">
-        <v>76</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7928,24 +7963,24 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>1355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7957,27 +7992,27 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7989,24 +8024,24 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>154496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8018,27 +8053,27 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>3.1</v>
       </c>
       <c r="I27">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -8050,24 +8085,27 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>44.9</v>
       </c>
       <c r="I28">
-        <v>354</v>
+        <v>34552</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8079,27 +8117,27 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>35.9</v>
+        <v>70.8</v>
       </c>
       <c r="I29">
-        <v>8540</v>
+        <v>224921</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8111,30 +8149,30 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>11.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="I30">
-        <v>93</v>
+        <v>118977</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -8143,30 +8181,30 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="I31">
-        <v>222</v>
+        <v>60150</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -8175,30 +8213,30 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I32">
-        <v>189</v>
+        <v>6158</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -8207,24 +8245,24 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I33">
-        <v>219</v>
+        <v>3515</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -8236,27 +8274,27 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8268,27 +8306,24 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="I35">
-        <v>237</v>
-      </c>
-      <c r="J35" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -8297,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -8306,21 +8341,21 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -8329,30 +8364,27 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="I37">
-        <v>103</v>
-      </c>
-      <c r="J37" t="s">
-        <v>119</v>
+        <v>141010</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -8364,24 +8396,24 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -8393,27 +8425,27 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>61.2</v>
+        <v>24.2</v>
       </c>
       <c r="I39">
-        <v>327484</v>
+        <v>2410</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -8425,27 +8457,24 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>121</v>
-      </c>
-      <c r="J40" t="s">
-        <v>129</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -8457,27 +8486,27 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -8486,30 +8515,27 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I42">
-        <v>143</v>
-      </c>
-      <c r="J42" t="s">
-        <v>135</v>
+        <v>154496</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -8518,30 +8544,30 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I43">
-        <v>1130</v>
+        <v>522</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -8553,33 +8579,30 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>44</v>
-      </c>
-      <c r="J44" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -8588,24 +8611,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -8617,33 +8637,30 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -8652,24 +8669,24 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="I47">
-        <v>120</v>
+        <v>327484</v>
       </c>
       <c r="J47" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -8681,24 +8698,27 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>17</v>
+        <v>1130</v>
+      </c>
+      <c r="J48" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -8710,24 +8730,24 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -8739,24 +8759,24 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="I50">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -8765,19 +8785,16 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>6028</v>
-      </c>
-      <c r="J51" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -8797,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -8832,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>28.7</v>
@@ -8864,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>42.8</v>
@@ -8887,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -8916,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -8948,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -8983,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>70.400000000000006</v>
@@ -9015,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>6.4</v>
@@ -9047,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>46.5</v>
@@ -9079,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>7.5</v>
@@ -9105,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -9140,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -9163,13 +9180,13 @@
         <v>199</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -9201,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>41.9</v>
@@ -9230,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -9256,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -9291,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -9314,10 +9331,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -9343,10 +9360,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -9372,10 +9389,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -9401,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9433,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9468,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -9497,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -9523,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -9552,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -9587,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>4.0999999999999996</v>
@@ -9619,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>35</v>
@@ -9642,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -9671,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -9703,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -9738,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -9761,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -9790,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -9819,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -9848,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -9880,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -9909,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -9938,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -9973,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -10008,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>36.799999999999997</v>
@@ -10034,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -10069,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>35.4</v>
@@ -10092,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -10124,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -10153,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -10185,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -10217,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -10246,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -10278,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -10307,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -10336,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -10368,10 +10385,10 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -10397,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -10426,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -10458,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -10484,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -10516,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -10548,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10571,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10603,10 +10620,10 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10638,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>15.8</v>
@@ -10664,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10693,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10725,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10748,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -10783,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10812,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>23.8</v>
@@ -10841,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>23.2</v>
@@ -10867,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10902,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>38.1</v>
@@ -10928,10 +10945,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -10960,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -10995,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>23.2</v>
@@ -11021,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11056,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11085,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>17.7</v>
@@ -11111,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11140,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11172,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -11198,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11227,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -11262,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11294,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>81.5</v>
@@ -11326,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>69.8</v>
@@ -11358,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -11384,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -11413,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -11445,7 +11462,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -11474,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -11506,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>45</v>
@@ -11532,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -11561,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -11593,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -11619,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -11651,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>33.1</v>
@@ -11680,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -11709,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -11738,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -11767,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -11796,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -11825,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -11854,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -11883,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -11909,10 +11926,10 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -11941,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -11970,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -11993,13 +12010,13 @@
         <v>463</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -12028,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -12057,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -12086,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -12115,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -12144,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -12179,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>25.4</v>
@@ -12205,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -12240,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>45.6</v>
@@ -12269,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -12298,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -12327,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -12359,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>26</v>
@@ -12388,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>66.5</v>
@@ -12420,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>28.8</v>
@@ -12449,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -12481,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -12510,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -12539,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -12568,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -12603,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -12632,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180">
         <v>23.9</v>
@@ -12661,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -12693,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
         <v>41.8</v>
@@ -12722,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
         <v>44.3</v>
@@ -12751,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -12783,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>85</v>
@@ -12809,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -12844,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>34.6</v>
@@ -12876,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
         <v>0.9</v>
@@ -12905,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>15.2</v>
@@ -12934,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>52.7</v>
@@ -12963,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>98.2</v>
@@ -12992,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>56.1</v>
@@ -13021,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>18.5</v>
@@ -13050,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>23.8</v>
@@ -13076,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -13111,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
         <v>75.7</v>
@@ -13140,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>45.3</v>
@@ -13169,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>34</v>
@@ -13195,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -13227,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>6</v>
@@ -13259,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>41.1</v>
@@ -13288,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -13323,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>30.8</v>
@@ -13352,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>7.7</v>
@@ -13381,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>49</v>
@@ -13407,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -13430,13 +13447,13 @@
         <v>602</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -13468,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>23.2</v>
@@ -13497,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -13526,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -13555,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -13587,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>38.1</v>
@@ -13616,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>23.2</v>
@@ -13645,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>37.5</v>
@@ -13677,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -13706,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
         <v>23.8</v>
@@ -13735,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>0.1</v>
@@ -13764,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>0.2</v>
@@ -13793,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -13825,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>15.2</v>
@@ -13854,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
         <v>24.1</v>
@@ -13883,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
         <v>23.8</v>
@@ -13912,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>7.5</v>
@@ -13944,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
         <v>30.4</v>
@@ -13976,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>49.4</v>
@@ -14002,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -14034,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -14072,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
         <v>81.599999999999994</v>
@@ -14098,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -14130,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -14162,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -14194,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -14226,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -14258,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -14296,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
         <v>40.200000000000003</v>
@@ -14322,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -14360,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>43.7</v>
@@ -14392,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>43.8</v>
@@ -14424,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>23.2</v>
@@ -14453,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
         <v>85.4</v>
@@ -14482,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -14511,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -14543,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
         <v>79.7</v>
@@ -14572,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -14604,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -14636,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
         <v>55.4</v>
@@ -14662,10 +14679,10 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -14691,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -14729,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
         <v>23.2</v>
@@ -14758,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>0.2</v>
@@ -14784,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -14810,10 +14827,10 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -14848,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
         <v>15.2</v>
@@ -14877,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
         <v>42.8</v>
@@ -14909,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -14938,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -14973,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
         <v>66.599999999999994</v>
@@ -15002,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
         <v>28.8</v>
@@ -15031,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -15063,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -15092,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -15127,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -15159,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -15188,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
         <v>38</v>
@@ -15211,10 +15228,10 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -15249,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
         <v>23.2</v>
@@ -15278,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
         <v>13.7</v>
@@ -15307,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -15336,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -15371,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>28.8</v>
@@ -15400,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -15429,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -15458,10 +15475,10 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -15496,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274">
         <v>41.6</v>
@@ -15528,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
         <v>28.8</v>
@@ -15551,10 +15568,10 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -15589,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277">
         <v>67.7</v>
@@ -15621,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278">
         <v>45.5</v>
@@ -15650,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -15679,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -15708,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -15737,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -15766,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -15792,10 +15809,10 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -15824,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -15856,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -15888,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -15923,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -15949,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -15981,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -16013,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291">
         <v>0.2</v>
@@ -16042,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292">
         <v>23.2</v>
@@ -16071,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="G293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -16097,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
         <v>28.8</v>
@@ -16123,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -16155,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H296">
         <v>24.4</v>
@@ -16187,7 +16204,7 @@
         <v>0</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297">
         <v>28.8</v>
@@ -16210,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -16248,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -16280,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300">
         <v>23.8</v>
@@ -16309,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301">
         <v>3.8</v>
@@ -16335,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -16370,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303">
         <v>37.1</v>
@@ -16402,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304">
         <v>7.1</v>
@@ -16431,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -16460,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="G306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306">
         <v>39.9</v>
@@ -16492,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307">
         <v>2.6</v>
@@ -16521,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308">
         <v>23.7</v>
@@ -16550,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309">
         <v>15.2</v>
@@ -16579,7 +16596,7 @@
         <v>0</v>
       </c>
       <c r="G310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -16608,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311">
         <v>24.6</v>
@@ -16637,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H312">
         <v>1.5</v>
@@ -16666,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="G313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H313">
         <v>22.1</v>
@@ -16692,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -16724,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315">
         <v>0.2</v>
@@ -16753,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="G316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H316">
         <v>29</v>
@@ -16782,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="G317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H317">
         <v>93.3</v>
@@ -16814,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318">
         <v>28.1</v>
@@ -16846,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319">
         <v>0.2</v>
@@ -16875,7 +16892,7 @@
         <v>0</v>
       </c>
       <c r="G320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320">
         <v>13.2</v>
@@ -16904,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="G321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -16936,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322">
         <v>31.2</v>
@@ -16962,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -16994,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="G324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H324">
         <v>23.7</v>
@@ -17020,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -17052,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326">
         <v>19.3</v>
@@ -17081,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H327">
         <v>0.1</v>
@@ -17110,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="G328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328">
         <v>19.3</v>
@@ -17139,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
         <v>29</v>
@@ -17168,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330">
         <v>22.6</v>
@@ -17197,7 +17214,7 @@
         <v>0</v>
       </c>
       <c r="G331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H331">
         <v>51.1</v>
@@ -17229,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332">
         <v>39.5</v>
@@ -17261,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="G333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333">
         <v>15</v>
@@ -17287,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334">
         <v>0</v>
@@ -17319,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335">
         <v>23.7</v>
@@ -17348,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336">
         <v>21.1</v>
@@ -17374,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337">
         <v>0</v>
@@ -17409,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338">
         <v>46.5</v>
@@ -17441,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H339">
         <v>5.4</v>
@@ -17470,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="F340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340">
         <v>0</v>
@@ -17499,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -17531,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -17563,7 +17580,7 @@
         <v>0</v>
       </c>
       <c r="G343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H343">
         <v>0.2</v>
@@ -17592,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H344">
         <v>15</v>
@@ -17621,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -17653,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346">
         <v>0.2</v>
@@ -17682,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -17714,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H348">
         <v>36.200000000000003</v>
@@ -17740,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -17766,7 +17783,7 @@
         <v>1045</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -17804,7 +17821,7 @@
         <v>0</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H351">
         <v>23.6</v>
@@ -17830,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -17859,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -17891,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="G354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354">
         <v>13.2</v>
@@ -17917,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355">
         <v>0</v>
@@ -17952,7 +17969,7 @@
         <v>0</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H356">
         <v>78.900000000000006</v>
@@ -17984,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="G357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H357">
         <v>0</v>
@@ -18016,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H358">
         <v>29</v>
@@ -18045,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H359">
         <v>58.2</v>
@@ -18077,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H360">
         <v>43.8</v>
@@ -18109,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361">
         <v>0</v>
@@ -18141,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="G362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H362">
         <v>5.9</v>
@@ -18173,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -18205,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="G364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364">
         <v>80.5</v>
@@ -18237,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H365">
         <v>22.6</v>
@@ -18263,7 +18280,7 @@
         <v>0</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -18298,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="G367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H367">
         <v>40.4</v>
@@ -18330,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368">
         <v>7.1</v>
@@ -18359,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="G369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -18388,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="G370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370">
         <v>0</v>
@@ -18414,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -18446,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="G372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -18472,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -18507,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="G374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H374">
         <v>58.1</v>
@@ -18536,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -18565,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="F376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -18597,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="G377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -18617,13 +18634,13 @@
         <v>1126</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E378">
         <v>0</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G378">
         <v>0</v>
@@ -18655,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379">
         <v>0.2</v>
@@ -18681,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="F380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -18710,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -18745,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="G382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H382">
         <v>28.7</v>
@@ -18774,7 +18791,7 @@
         <v>0</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383">
         <v>28.7</v>
@@ -18803,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="G384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H384">
         <v>24.8</v>
@@ -18832,7 +18849,7 @@
         <v>0</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -18864,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386">
         <v>23.6</v>
@@ -18893,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="G387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H387">
         <v>4.0999999999999996</v>
@@ -18922,7 +18939,7 @@
         <v>0</v>
       </c>
       <c r="G388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H388">
         <v>29</v>
@@ -18951,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389">
         <v>23.6</v>
@@ -18967,7 +18984,7 @@
       <c r="B390" t="s">
         <v>1161</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C390" s="4" t="s">
         <v>1162</v>
       </c>
       <c r="D390">
@@ -18980,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="G390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H390">
         <v>23.6</v>
@@ -19009,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="G391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391">
         <v>45.6</v>
@@ -19041,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H392">
         <v>0</v>
@@ -19067,7 +19084,7 @@
         <v>0</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -19102,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="G394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H394">
         <v>43.8</v>
@@ -19134,7 +19151,7 @@
         <v>0</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H395">
         <v>24.6</v>
@@ -19163,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H396">
         <v>29.5</v>
@@ -19192,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H397">
         <v>0</v>
@@ -19221,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="G398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H398">
         <v>19.3</v>
@@ -19250,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="G399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -19276,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G400">
         <v>0</v>
@@ -19308,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="G401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H401">
         <v>23.6</v>
@@ -19337,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H402">
         <v>16.5</v>
@@ -19366,7 +19383,7 @@
         <v>0</v>
       </c>
       <c r="G403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H403">
         <v>64.3</v>
@@ -19398,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H404">
         <v>23.7</v>
@@ -19424,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <v>0</v>
@@ -19453,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -19488,7 +19505,7 @@
         <v>0</v>
       </c>
       <c r="G407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H407">
         <v>0</v>
@@ -19517,7 +19534,7 @@
         <v>0</v>
       </c>
       <c r="G408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H408">
         <v>16.5</v>
@@ -19546,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="G409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H409">
         <v>0</v>
@@ -19575,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -19610,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H411">
         <v>16</v>
@@ -19639,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="G412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H412">
         <v>22.6</v>
@@ -29844,7 +29861,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J750" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J750" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J750">
+      <sortCondition descending="1" ref="D1:D750"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D23:G750 E2:G22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>